--- a/forwardprimer-v3_27.xlsx
+++ b/forwardprimer-v3_27.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="forwardprimer-v3_27" sheetId="1" r:id="rId1"/>
@@ -28,865 +28,865 @@
     <t>A1</t>
   </si>
   <si>
-    <t>F2497-GTTCAGAGGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTTCAGAGGTTCGTCGGCAGCGTC</t>
+    <t>F2497-ACAACAGACG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAACAGACGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>F2498-AACTCCATCC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACTCCATCCTCGTCGGCAGCGTC</t>
+    <t>F2498-CTGTCTAGTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTGTCTAGTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>F2499-ATCGACTCTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCGACTCTTTCGTCGGCAGCGTC</t>
+    <t>F2499-ACAGTCAGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAGTCAGAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>F2500-GACGAACACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGACGAACACTTCGTCGGCAGCGTC</t>
+    <t>F2500-AACACAACAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACACAACACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>F2501-GTCCATCGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTCCATCGTTTCGTCGGCAGCGTC</t>
+    <t>F2501-GAACAACGTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAACAACGTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A6</t>
   </si>
   <si>
-    <t>F2502-CCTTGATCAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCCTTGATCAGTCGTCGGCAGCGTC</t>
+    <t>F2502-AACAGTAGGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACAGTAGGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A7</t>
   </si>
   <si>
-    <t>F2503-TTCCATGTGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCCATGTGCTCGTCGGCAGCGTC</t>
+    <t>F2503-ATGTTGGTCC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGTTGGTCCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A8</t>
   </si>
   <si>
-    <t>F2504-CAAGAGTTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAAGAGTTGTTCGTCGGCAGCGTC</t>
+    <t>F2504-TCAGTTCTGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCAGTTCTGGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A9</t>
   </si>
   <si>
-    <t>F2505-AGCTAGTCCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGCTAGTCCATCGTCGGCAGCGTC</t>
+    <t>F2505-GACTACAAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGACTACAAGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A10</t>
   </si>
   <si>
-    <t>F2506-GTTCGTCTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTTCGTCTCTTCGTCGGCAGCGTC</t>
+    <t>F2506-GTAGAGAGTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTAGAGAGTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A11</t>
   </si>
   <si>
-    <t>F2507-GTTCTGTGTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTTCTGTGTGTCGTCGGCAGCGTC</t>
+    <t>F2507-CATGAACACG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCATGAACACGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A12</t>
   </si>
   <si>
-    <t>F2508-TGTGGTAGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTGGTAGAATCGTCGGCAGCGTC</t>
+    <t>F2508-AGACTGGAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGACTGGAGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B1</t>
   </si>
   <si>
-    <t>F2509-GAACTACTGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAACTACTGCTCGTCGGCAGCGTC</t>
+    <t>F2509-AGTGGTGAAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTGGTGAAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B2</t>
   </si>
   <si>
-    <t>F2510-TCATCGTCGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCATCGTCGTTCGTCGGCAGCGTC</t>
+    <t>F2510-GACTTGACCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGACTTGACCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B3</t>
   </si>
   <si>
-    <t>F2511-ATGTCGAGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGTCGAGTATCGTCGGCAGCGTC</t>
+    <t>F2511-CTCGATGTAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTCGATGTACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B4</t>
   </si>
   <si>
-    <t>F2512-AGCAGTGAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGCAGTGAGTTCGTCGGCAGCGTC</t>
+    <t>F2512-TGGATCAACG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGGATCAACGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B5</t>
   </si>
   <si>
-    <t>F2513-AGAGAACTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGAGAACTCATCGTCGGCAGCGTC</t>
+    <t>F2513-TCTCACCTAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTCACCTAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B6</t>
   </si>
   <si>
-    <t>F2514-GCATCTACTA</t>
+    <t>F2514-ATCTGAGATG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCTGAGATGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>F2515-ACTGGTCTAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTGGTCTACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>F2516-TCACACACGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCACACACGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>F2517-CTACTGTCGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTACTGTCGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>F2518-ACAAGTCTCC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAAGTCTCCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>F2519-CTACCTCTAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTACCTCTAGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>F2520-CAAGTGTAGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAAGTGTAGCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>F2521-TTGGTGTCGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGGTGTCGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>F2522-GTACTGCTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTACTGCTCTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>F2523-GAACTTGCTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAACTTGCTCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>F2524-ATCAACTGCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCAACTGCATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>F2525-TTCCTACACG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCCTACACGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>F2526-AGTAGCAGCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTAGCAGCTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>F2527-AGGAAGGTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGGAAGGTCATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>F2528-TAGCACATGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGCACATGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>F2529-GTCTCGATGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTCTCGATGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>F2530-ATGAAGTGCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGAAGTGCTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>F2531-CATGTGCACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCATGTGCACATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>F2532-TGTGAACAAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTGAACAACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>F2533-TACTCGTGGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACTCGTGGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>F2534-GTTGTGACAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTTGTGACAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>F2535-GAGATGTCGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAGATGTCGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>F2536-ACATCCATGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACATCCATGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>F2537-AGAACACTTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGAACACTTCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>F2538-GTCTGAGCAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTCTGAGCAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>F2539-TCAAGACGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCAAGACGAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>F2540-CGTGAAGTAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGTGAAGTACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>F2541-ACGTCTCTTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACGTCTCTTGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>F2542-AGTGTAGACC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTGTAGACCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>F2543-TTCATCGATC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCATCGATCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>F2544-CTCTGCTACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTCTGCTACATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>F2545-TAGAGCTCTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGAGCTCTTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>F2546-GTACATGTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTACATGTCTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>F2547-GATGACCAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGATGACCAGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>F2548-ACTACTCTCG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTACTCTCGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>F2549-GTCACATCTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTCACATCTGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>F2550-CTTCTCAGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTTCTCAGAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>F2551-AAGCAAGCTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGCAAGCTCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>F2552-AACGAACGTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACGAACGTCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>F2553-GATCCATGAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGATCCATGACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>F2554-AACTCAACTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACTCAACTGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E11</t>
+  </si>
+  <si>
+    <t>F2555-GAGAGCTAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAGAGCTAGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>F2556-ACAGCATCAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAGCATCATTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F2557-CGATGCACAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGATGCACAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F2558-ACGAACCTTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACGAACCTTCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>F2559-TTCCTCAGCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCCTCAGCATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>F2560-AACAACGTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACAACGTCATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>F2561-AGGTGACTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGGTGACTCTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>F2562-GTACACTCGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTACACTCGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>F2563-GATGTGAGTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGATGTGAGTGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>F2564-TGTCCAGTTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTCCAGTTCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>F2565-ACAAGCATCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAAGCATCTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>F2566-TCTGTACTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTGTACTCTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>F2567-ACTACTCGAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTACTCGACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>F2568-CATCCAACTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCATCCAACTCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>F2569-TTGCTCAAGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGCTCAAGGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>F2570-TGTCAGCAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTCAGCAGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>F2571-TGCTACAACC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGCTACAACCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>F2572-TCTGCACAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTGCACAGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>F2573-GGTTGTCTAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGTTGTCTACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>F2574-TGCAAGAAGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGCAAGAAGCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>F2575-TGAGTCTAGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGAGTCTAGCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G8</t>
+  </si>
+  <si>
+    <t>F2576-CTACGTACAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTACGTACAGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G9</t>
+  </si>
+  <si>
+    <t>F2577-AGCTTGAAGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGCTTGAAGCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G10</t>
+  </si>
+  <si>
+    <t>F2578-AAGAGAGAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGAGAGAGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G11</t>
+  </si>
+  <si>
+    <t>F2579-CTTGTCACCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTTGTCACCATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G12</t>
+  </si>
+  <si>
+    <t>F2580-ATGTGGTACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGTGGTACTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>F2581-GGTTGATGTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGTTGATGTGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>F2582-CATCTCACTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCATCTCACTGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>F2583-AACCTGCATG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACCTGCATGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H4</t>
+  </si>
+  <si>
+    <t>F2584-CTCTAGTTGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTCTAGTTGGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H5</t>
+  </si>
+  <si>
+    <t>F2585-GCATCTACTA</t>
   </si>
   <si>
     <t>AATGATACGGCGACCACCGAGATCTACACGCATCTACTATCGTCGGCAGCGTC</t>
   </si>
   <si>
-    <t>B7</t>
-  </si>
-  <si>
-    <t>F2515-AGGTCCTGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGGTCCTGTTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B8</t>
-  </si>
-  <si>
-    <t>F2516-CGAGTACTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGAGTACTGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B9</t>
-  </si>
-  <si>
-    <t>F2517-CAGTCACAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAGTCACAGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B10</t>
-  </si>
-  <si>
-    <t>F2518-TACGTTGACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACGTTGACTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B11</t>
-  </si>
-  <si>
-    <t>F2519-GATCGAGGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGATCGAGGTATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B12</t>
-  </si>
-  <si>
-    <t>F2520-ACAGAACAGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAGAACAGCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>F2521-GAACAAGAAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAACAAGAAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>F2522-AACCTACACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACCTACACTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>F2523-CTCCATCAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTCCATCAGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>F2524-TTCGTCGTAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCGTCGTACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>F2525-GAAGGTACAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAAGGTACATTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>F2526-ATGAACCACC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGAACCACCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>F2527-TACGTCTTGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACGTCTTGGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>F2528-TGATCTCAGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGATCTCAGGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C9</t>
-  </si>
-  <si>
-    <t>F2529-ACACATGATG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACACATGATGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>F2530-AGAGTCTGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGAGTCTGATTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C11</t>
-  </si>
-  <si>
-    <t>F2531-AAGCAGATCC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGCAGATCCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C12</t>
-  </si>
-  <si>
-    <t>F2532-GTGGTAGCTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTGGTAGCTTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>F2533-AGATGAACCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGATGAACCTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>F2534-GTTCTCATGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTTCTCATGCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>F2535-TAGCACTCAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGCACTCATTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>F2536-AGAAGGAAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGAAGGAAGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>F2537-TAGACAACGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGACAACGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>F2538-TCTTGTTGGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTTGTTGGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>F2539-TGTGTTCCAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTGTTCCAATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D8</t>
-  </si>
-  <si>
-    <t>F2540-AGTAGGATGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTAGGATGGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D9</t>
-  </si>
-  <si>
-    <t>F2541-TCCTCAACCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCCTCAACCATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D10</t>
-  </si>
-  <si>
-    <t>F2542-CCTACTGTAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCCTACTGTACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D11</t>
-  </si>
-  <si>
-    <t>F2543-ACAAGTCTCC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAAGTCTCCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D12</t>
-  </si>
-  <si>
-    <t>F2544-ACATGTACGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACATGTACGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>F2545-AGAACTCACC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGAACTCACCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <t>F2546-CAAGACCACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAAGACCACATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>F2547-GCTACTGACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCTACTGACATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E4</t>
-  </si>
-  <si>
-    <t>F2548-TGGTCATCAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGGTCATCAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E5</t>
-  </si>
-  <si>
-    <t>F2549-TTCCTGTCGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCCTGTCGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E6</t>
-  </si>
-  <si>
-    <t>F2550-AAGGTTCCTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGGTTCCTTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E7</t>
-  </si>
-  <si>
-    <t>F2551-TCTAGTCGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTAGTCGTATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E8</t>
-  </si>
-  <si>
-    <t>F2552-TCGAGGATCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCGAGGATCATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E9</t>
-  </si>
-  <si>
-    <t>F2553-CTCTTCTCTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTCTTCTCTGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E10</t>
-  </si>
-  <si>
-    <t>F2554-AGGATCCATG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGGATCCATGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E11</t>
-  </si>
-  <si>
-    <t>F2555-CTGAGTGCTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTGAGTGCTTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E12</t>
-  </si>
-  <si>
-    <t>F2556-CGAACGAAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGAACGAAGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>F2557-ACTGACTCAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTGACTCATTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>F2558-AGAGAACGTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGAGAACGTGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>F2559-TGGACAGTAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGGACAGTACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F4</t>
-  </si>
-  <si>
-    <t>F2560-GCAAGTAGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCAAGTAGAATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F5</t>
-  </si>
-  <si>
-    <t>F2561-GTAGGACAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTAGGACAGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F6</t>
-  </si>
-  <si>
-    <t>F2562-TAGCTAGGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGCTAGGTTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F7</t>
-  </si>
-  <si>
-    <t>F2563-GAGTCTTCTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAGTCTTCTGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F8</t>
-  </si>
-  <si>
-    <t>F2564-AAGCTTGCAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGCTTGCATTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F9</t>
-  </si>
-  <si>
-    <t>F2565-CTCAGAGTTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTCAGAGTTGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F10</t>
-  </si>
-  <si>
-    <t>F2566-GACGTTCAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGACGTTCAGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F11</t>
-  </si>
-  <si>
-    <t>F2567-GTTCTTCAGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTTCTTCAGCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F12</t>
-  </si>
-  <si>
-    <t>F2568-CGATGAAGGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGATGAAGGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G1</t>
-  </si>
-  <si>
-    <t>F2569-TCCACATGCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCCACATGCTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G2</t>
-  </si>
-  <si>
-    <t>F2570-AGGTAGCAAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGGTAGCAAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G3</t>
-  </si>
-  <si>
-    <t>F2571-GAAGTGTGTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAAGTGTGTCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G4</t>
-  </si>
-  <si>
-    <t>F2572-AGGTCTAGGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGGTCTAGGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G5</t>
-  </si>
-  <si>
-    <t>F2573-ACTCGATCCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTCGATCCTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G6</t>
-  </si>
-  <si>
-    <t>F2574-AAGAGAGTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGAGAGTCATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G7</t>
-  </si>
-  <si>
-    <t>F2575-GTACACAGAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTACACAGACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G8</t>
-  </si>
-  <si>
-    <t>F2576-GAGGTACAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAGGTACAGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G9</t>
-  </si>
-  <si>
-    <t>F2577-CGATCATCAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGATCATCATTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G10</t>
-  </si>
-  <si>
-    <t>F2578-AACATGGACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACATGGACATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G11</t>
-  </si>
-  <si>
-    <t>F2579-AACAGCTCAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACAGCTCACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G12</t>
-  </si>
-  <si>
-    <t>F2580-AAGATGCAGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGATGCAGGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H1</t>
-  </si>
-  <si>
-    <t>F2581-ACTACTTCGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTACTTCGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H2</t>
-  </si>
-  <si>
-    <t>F2582-CACAGAGTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCACAGAGTGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H3</t>
-  </si>
-  <si>
-    <t>F2583-TCATGCTAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCATGCTAGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H4</t>
-  </si>
-  <si>
-    <t>F2584-CATCCTCAAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCATCCTCAACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H5</t>
-  </si>
-  <si>
-    <t>F2585-TTCAGACAGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCAGACAGCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
     <t>H6</t>
   </si>
   <si>
-    <t>F2586-TGTCTGACAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTCTGACAGTCGTCGGCAGCGTC</t>
+    <t>F2586-TCTCTTCCAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTCTTCCATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H7</t>
   </si>
   <si>
-    <t>F2587-AGCTACAGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGCTACAGAATCGTCGGCAGCGTC</t>
+    <t>F2587-TCAGGTCTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCAGGTCTCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H8</t>
   </si>
   <si>
-    <t>F2588-CGTGTTCGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGTGTTCGATTCGTCGGCAGCGTC</t>
+    <t>F2588-TGCACGTGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGCACGTGAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H9</t>
   </si>
   <si>
-    <t>F2589-TCAGAACTAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCAGAACTAGTCGTCGGCAGCGTC</t>
+    <t>F2589-TGAGAGTCTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGAGAGTCTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H10</t>
   </si>
   <si>
-    <t>F2590-CTTGGAGATC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTTGGAGATCTCGTCGGCAGCGTC</t>
+    <t>F2590-ATGGACTTGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGGACTTGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H11</t>
   </si>
   <si>
-    <t>F2591-ATGCAAGGTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGCAAGGTGTCGTCGGCAGCGTC</t>
+    <t>F2591-CCTACACGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCCTACACGATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H12</t>
   </si>
   <si>
-    <t>F2592-CAAGCAGTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAAGCAGTGATCGTCGGCAGCGTC</t>
+    <t>F2592-AAGACTGTCG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGACTGTCGTCGTCGGCAGCGTC</t>
   </si>
 </sst>
 </file>
